--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il12a</t>
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.55724441603245</v>
+        <v>0.087017</v>
       </c>
       <c r="H2">
-        <v>1.55724441603245</v>
+        <v>0.261051</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0403113777559257</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04031137775592569</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.599233389764415</v>
+        <v>0.157372</v>
       </c>
       <c r="N2">
-        <v>0.599233389764415</v>
+        <v>0.472116</v>
       </c>
       <c r="O2">
-        <v>0.7895500432033472</v>
+        <v>0.1623752133230521</v>
       </c>
       <c r="P2">
-        <v>0.7895500432033472</v>
+        <v>0.1623752133230521</v>
       </c>
       <c r="Q2">
-        <v>0.9331528501108318</v>
+        <v>0.013694039324</v>
       </c>
       <c r="R2">
-        <v>0.9331528501108318</v>
+        <v>0.123246353916</v>
       </c>
       <c r="S2">
-        <v>0.7895500432033472</v>
+        <v>0.006545568562464571</v>
       </c>
       <c r="T2">
-        <v>0.7895500432033472</v>
+        <v>0.006545568562464571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.087017</v>
+      </c>
+      <c r="H3">
+        <v>0.261051</v>
+      </c>
+      <c r="I3">
+        <v>0.0403113777559257</v>
+      </c>
+      <c r="J3">
+        <v>0.04031137775592569</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.6279076666666666</v>
+      </c>
+      <c r="N3">
+        <v>1.883723</v>
+      </c>
+      <c r="O3">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="P3">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="Q3">
+        <v>0.05463864143033333</v>
+      </c>
+      <c r="R3">
+        <v>0.491747772873</v>
+      </c>
+      <c r="S3">
+        <v>0.02611654349607184</v>
+      </c>
+      <c r="T3">
+        <v>0.02611654349607184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.087017</v>
+      </c>
+      <c r="H4">
+        <v>0.261051</v>
+      </c>
+      <c r="I4">
+        <v>0.0403113777559257</v>
+      </c>
+      <c r="J4">
+        <v>0.04031137775592569</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1839076666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.5517230000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="P4">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="Q4">
+        <v>0.01600309343033333</v>
+      </c>
+      <c r="R4">
+        <v>0.144027840873</v>
+      </c>
+      <c r="S4">
+        <v>0.00764926569738929</v>
+      </c>
+      <c r="T4">
+        <v>0.007649265697389288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.55724441603245</v>
-      </c>
-      <c r="H3">
-        <v>1.55724441603245</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.159722163367109</v>
-      </c>
-      <c r="N3">
-        <v>0.159722163367109</v>
-      </c>
-      <c r="O3">
-        <v>0.2104499567966529</v>
-      </c>
-      <c r="P3">
-        <v>0.2104499567966529</v>
-      </c>
-      <c r="Q3">
-        <v>0.2487264470200532</v>
-      </c>
-      <c r="R3">
-        <v>0.2487264470200532</v>
-      </c>
-      <c r="S3">
-        <v>0.2104499567966529</v>
-      </c>
-      <c r="T3">
-        <v>0.2104499567966529</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.574655333333333</v>
+      </c>
+      <c r="H5">
+        <v>4.723966</v>
+      </c>
+      <c r="I5">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="J5">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.157372</v>
+      </c>
+      <c r="N5">
+        <v>0.472116</v>
+      </c>
+      <c r="O5">
+        <v>0.1623752133230521</v>
+      </c>
+      <c r="P5">
+        <v>0.1623752133230521</v>
+      </c>
+      <c r="Q5">
+        <v>0.2478066591173333</v>
+      </c>
+      <c r="R5">
+        <v>2.230259932056</v>
+      </c>
+      <c r="S5">
+        <v>0.1184482853532509</v>
+      </c>
+      <c r="T5">
+        <v>0.118448285353251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.574655333333333</v>
+      </c>
+      <c r="H6">
+        <v>4.723966</v>
+      </c>
+      <c r="I6">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="J6">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6279076666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.883723</v>
+      </c>
+      <c r="O6">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="P6">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="Q6">
+        <v>0.9887381561575554</v>
+      </c>
+      <c r="R6">
+        <v>8.898643405417999</v>
+      </c>
+      <c r="S6">
+        <v>0.4726036809396038</v>
+      </c>
+      <c r="T6">
+        <v>0.4726036809396038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.574655333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.723966</v>
+      </c>
+      <c r="I7">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="J7">
+        <v>0.7294727004767241</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1839076666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.5517230000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="P7">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="Q7">
+        <v>0.2895911881575556</v>
+      </c>
+      <c r="R7">
+        <v>2.606320693418</v>
+      </c>
+      <c r="S7">
+        <v>0.1384207341838694</v>
+      </c>
+      <c r="T7">
+        <v>0.1384207341838694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.496949</v>
+      </c>
+      <c r="H8">
+        <v>1.490847</v>
+      </c>
+      <c r="I8">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="J8">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.157372</v>
+      </c>
+      <c r="N8">
+        <v>0.472116</v>
+      </c>
+      <c r="O8">
+        <v>0.1623752133230521</v>
+      </c>
+      <c r="P8">
+        <v>0.1623752133230521</v>
+      </c>
+      <c r="Q8">
+        <v>0.07820585802799999</v>
+      </c>
+      <c r="R8">
+        <v>0.703852722252</v>
+      </c>
+      <c r="S8">
+        <v>0.03738135940733658</v>
+      </c>
+      <c r="T8">
+        <v>0.03738135940733658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.496949</v>
+      </c>
+      <c r="H9">
+        <v>1.490847</v>
+      </c>
+      <c r="I9">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="J9">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6279076666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.883723</v>
+      </c>
+      <c r="O9">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="P9">
+        <v>0.6478702775727568</v>
+      </c>
+      <c r="Q9">
+        <v>0.3120380870423333</v>
+      </c>
+      <c r="R9">
+        <v>2.808342783381</v>
+      </c>
+      <c r="S9">
+        <v>0.1491500531370813</v>
+      </c>
+      <c r="T9">
+        <v>0.1491500531370813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.496949</v>
+      </c>
+      <c r="H10">
+        <v>1.490847</v>
+      </c>
+      <c r="I10">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="J10">
+        <v>0.2302159217673503</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1839076666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.5517230000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="P10">
+        <v>0.1897545091041911</v>
+      </c>
+      <c r="Q10">
+        <v>0.09139273104233335</v>
+      </c>
+      <c r="R10">
+        <v>0.8225345793810002</v>
+      </c>
+      <c r="S10">
+        <v>0.04368450922293243</v>
+      </c>
+      <c r="T10">
+        <v>0.04368450922293241</v>
       </c>
     </row>
   </sheetData>
